--- a/xlsx/千里達及托巴哥_intext.xlsx
+++ b/xlsx/千里達及托巴哥_intext.xlsx
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_千里達及托巴哥</t>
+    <t>体育运动_体育运动_南非_千里達及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5%E5%9C%8B%E6%97%97</t>
